--- a/biology/Botanique/Jardin_Marguerite-Boucicaut/Jardin_Marguerite-Boucicaut.xlsx
+++ b/biology/Botanique/Jardin_Marguerite-Boucicaut/Jardin_Marguerite-Boucicaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin Marguerite-Boucicaut est un jardin public situé dans le 15e arrondissement de Paris, sur la rive gauche de la Seine, sur les anciens terrains de l'hôpital Boucicaut[1].
+Le jardin Marguerite-Boucicaut est un jardin public situé dans le 15e arrondissement de Paris, sur la rive gauche de la Seine, sur les anciens terrains de l'hôpital Boucicaut.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Situation et desserte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin se trouve au 7, allée Isadora-Duncan, dans le 15e arrondissement de Paris. Il est desservi par la ligne 10 (station Javel - André Citroën) et par la ligne 8 (stations Boucicaut, le RER C (gare du Pont du Garigliano et gare de Javel) et la ligne de tramway T3a (station Pont du Garigliano).
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On y trouve un buste de Marguerite Boucicaut, des jeux pour enfants et plusieurs bancs.
 </t>
@@ -574,9 +590,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été nommé en en mémoire de la philanthrope féministe Marguerite Boucicaut[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé en en mémoire de la philanthrope féministe Marguerite Boucicaut.
 </t>
         </is>
       </c>
